--- a/xlsx/性别研究_intext.xlsx
+++ b/xlsx/性别研究_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="797">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="794">
   <si>
     <t>性别研究</t>
   </si>
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B3%E6%80%A7%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>女性主義</t>
-  </si>
-  <si>
-    <t>政策_政策_政治學_性别研究</t>
+    <t>女性主义</t>
+  </si>
+  <si>
+    <t>政策_政策_政治学_性别研究</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B3%E6%80%A7</t>
@@ -65,7 +65,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B3%E6%80%A7%E4%B8%BB%E7%BE%A9%E6%AD%B7%E5%8F%B2</t>
   </si>
   <si>
-    <t>女性主義歷史</t>
+    <t>女性主义历史</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Timeline_of_women%27s_suffrage</t>
@@ -77,7 +77,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B3%E6%80%A7%E5%8F%83%E6%94%BF%E6%AC%8A</t>
   </si>
   <si>
-    <t>女性參政權</t>
+    <t>女性参政权</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Suffrage_in_Australia</t>
@@ -113,7 +113,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E7%9A%84%E5%A9%A6%E5%A5%B3%E5%8F%83%E6%94%BF%E6%AC%8A</t>
   </si>
   <si>
-    <t>英國的婦女參政權</t>
+    <t>英国的妇女参政权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%A6%87%E5%A5%B3%E9%80%89%E4%B8%BE%E6%9D%83</t>
@@ -131,13 +131,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%B3%A2%E5%A5%B3%E6%80%A7%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>第二波女性主義</t>
+    <t>第二波女性主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%89%E6%B3%A2%E5%A5%B3%E6%80%A7%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>第三波女性主義</t>
+    <t>第三波女性主义</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Feminist_movements_and_ideologies</t>
@@ -155,7 +155,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E6%94%BF%E5%BA%9C%E5%A5%B3%E6%80%A7%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>無政府女性主義</t>
+    <t>无政府女性主义</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Atheist_feminism</t>
@@ -203,7 +203,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%85%8B%E5%A5%B3%E6%80%A7%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>生態女性主義</t>
+    <t>生态女性主义</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Equality_feminism</t>
@@ -239,7 +239,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E5%A5%B3%E6%80%A7%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>伊斯蘭女性主義</t>
+    <t>伊斯兰女性主义</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Jewish_feminism</t>
@@ -323,7 +323,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E9%80%B2%E5%A5%B3%E6%80%A7%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>基進女性主義</t>
+    <t>基进女性主义</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Separatist_feminism</t>
@@ -335,7 +335,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E7%A9%8D%E6%A5%B5%E5%A5%B3%E6%80%A7%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>性積極女性主義</t>
+    <t>性积极女性主义</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Social_feminism</t>
@@ -389,7 +389,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A9%A6%E5%A5%B3%E6%AC%8A%E5%88%A9</t>
   </si>
   <si>
-    <t>婦女權利</t>
+    <t>妇女权利</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Feminist_effects_on_society</t>
@@ -401,13 +401,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%93%81%E5%A5%B3%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>擁女主義</t>
+    <t>拥女主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E5%A5%B3%E6%AC%8A%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>反女權主義</t>
+    <t>反女权主义</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Women%27s_health</t>
@@ -425,7 +425,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E5%88%A5%E5%B9%B3%E7%AD%89</t>
   </si>
   <si>
-    <t>性別平等</t>
+    <t>性别平等</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Feminism_and_equality</t>
@@ -437,7 +437,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%87%9D%E8%A6%96</t>
   </si>
   <si>
-    <t>凝視</t>
+    <t>凝视</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Femicide</t>
@@ -449,19 +449,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E5%88%A5%E4%B8%BB%E6%B5%81%E5%8C%96</t>
   </si>
   <si>
-    <t>性別主流化</t>
+    <t>性别主流化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%8D%E6%AC%8A</t>
   </si>
   <si>
-    <t>母權</t>
+    <t>母权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A9%A6%E5%A5%B3%E7%A0%94%E7%A9%B6</t>
   </si>
   <si>
-    <t>婦女研究</t>
+    <t>妇女研究</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B7%E6%80%A7%E7%A0%94%E7%A9%B6</t>
@@ -473,19 +473,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%88%B6%E6%AC%8A</t>
   </si>
   <si>
-    <t>父權</t>
+    <t>父权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%99%B0%E6%80%A7%E6%9B%B8%E5%AF%AB</t>
   </si>
   <si>
-    <t>陰性書寫</t>
+    <t>阴性书写</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B3%E6%80%A7%E4%B8%BB%E7%BE%A9%E4%BA%BA%E9%A1%9E%E5%AD%B8</t>
   </si>
   <si>
-    <t>女性主義人類學</t>
+    <t>女性主义人类学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Feminist_archaeology</t>
@@ -509,7 +509,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B3%E6%80%A7%E4%B8%BB%E7%BE%A9%E7%8A%AF%E7%BD%AA%E5%AD%B8</t>
   </si>
   <si>
-    <t>女性主義犯罪學</t>
+    <t>女性主义犯罪学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Feminist_economics</t>
@@ -617,7 +617,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A9%A6%E5%A5%B3%E7%A5%9E%E5%AD%B8</t>
   </si>
   <si>
-    <t>婦女神學</t>
+    <t>妇女神学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Feminism_in_Canada</t>
@@ -629,7 +629,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B%E5%A5%B3%E6%80%A7%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>中華人民共和國女性主義</t>
+    <t>中华人民共和国女性主义</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Feminism_in_Egypt</t>
@@ -791,7 +791,7 @@
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E5%A5%B3%E6%AC%8A%E4%B8%BB%E7%BE%A9%E5%81%B4%E6%AC%84</t>
   </si>
   <si>
-    <t>Template talk-女權主義側欄</t>
+    <t>Template talk-女权主义侧栏</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E9%99%85%E6%95%B4%E5%90%88</t>
@@ -809,13 +809,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E5%88%A5%E8%AA%8D%E5%90%8C</t>
   </si>
   <si>
-    <t>性別認同</t>
+    <t>性别认同</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A3%E8%AD%B0</t>
   </si>
   <si>
-    <t>代議</t>
+    <t>代议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%85%B7%E5%84%BF%E7%A0%94%E7%A9%B6</t>
@@ -833,7 +833,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%AD%B8</t>
   </si>
   <si>
-    <t>文學</t>
+    <t>文学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%86%E5%AD%A6</t>
@@ -875,19 +875,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AA%92%E9%AB%94%E7%A0%94%E7%A9%B6</t>
   </si>
   <si>
-    <t>媒體研究</t>
+    <t>媒体研究</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E5%88%A5_(%E6%96%87%E5%8C%96)</t>
   </si>
   <si>
-    <t>性別 (文化)</t>
+    <t>性别 (文化)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E7%A8%AE</t>
   </si>
   <si>
-    <t>人種</t>
+    <t>人种</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%8F%E7%BE%A4</t>
@@ -911,13 +911,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%B1%8D</t>
   </si>
   <si>
-    <t>國籍</t>
+    <t>国籍</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BA%AB%E5%BF%83%E9%9A%9C%E7%A4%99</t>
   </si>
   <si>
-    <t>身心障礙</t>
+    <t>身心障碍</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5%E5%A4%A7%E5%AD%A6</t>
@@ -959,31 +959,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%B7%E5%90%8C%E6%80%A7%E6%88%80</t>
   </si>
   <si>
-    <t>男同性戀</t>
+    <t>男同性恋</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B3%E5%90%8C%E6%80%A7%E6%88%80</t>
   </si>
   <si>
-    <t>女同性戀</t>
+    <t>女同性恋</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B7%A8%E6%80%A7%E5%88%A5</t>
   </si>
   <si>
-    <t>跨性別</t>
+    <t>跨性别</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%B8%E7%A7%91%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>學科列表</t>
+    <t>学科列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AB%96%E8%BF%B0</t>
   </si>
   <si>
-    <t>論述</t>
+    <t>论述</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/LGBT_topics_in_education</t>
@@ -1001,7 +1001,7 @@
     <t>https://zh.wikipedia.org/wiki/LGBT%E6%96%87%E5%AD%B8</t>
   </si>
   <si>
-    <t>LGBT文學</t>
+    <t>LGBT文学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%85%B7%E5%84%BF%E7%90%86%E8%AE%BA</t>
@@ -1013,7 +1013,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E6%80%A7%E6%88%80%E7%A4%BE%E7%BE%A4</t>
   </si>
   <si>
-    <t>同性戀社群</t>
+    <t>同性恋社群</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/LGBT%E6%96%87%E5%8C%96</t>
@@ -1025,7 +1025,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E5%BF%97%E5%9C%8B%E6%AD%8C</t>
   </si>
   <si>
-    <t>同志國歌</t>
+    <t>同志国歌</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E5%BF%97%E9%85%92%E5%90%A7</t>
@@ -1049,7 +1049,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%87%BA%E6%AB%83</t>
   </si>
   <si>
-    <t>出櫃</t>
+    <t>出柜</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Drag_king</t>
@@ -1079,7 +1079,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B3%E5%90%8C%E5%BF%97%E7%83%8F%E6%89%98%E9%82%A6</t>
   </si>
   <si>
-    <t>女同志烏托邦</t>
+    <t>女同志乌托邦</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/LGBT_music</t>
@@ -1103,7 +1103,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E6%80%A7%E7%B5%90%E5%90%88</t>
   </si>
   <si>
-    <t>同性結合</t>
+    <t>同性结合</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_LGBT_slang_terms</t>
@@ -1139,7 +1139,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8B%E6%AD%A1%E6%B4%9E</t>
   </si>
   <si>
-    <t>尋歡洞</t>
+    <t>寻欢洞</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BD%A9%E8%99%B9%E6%97%97_(LGBT)</t>
@@ -1157,31 +1157,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AF%80%E6%97%A5</t>
   </si>
   <si>
-    <t>節日</t>
+    <t>节日</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E6%80%A7%E6%88%80%E8%87%AA%E8%B1%AA%E6%97%A5</t>
   </si>
   <si>
-    <t>同性戀自豪日</t>
+    <t>同性恋自豪日</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E9%99%B0%E9%99%BD%E4%BA%BA%E5%9C%98%E7%B5%90%E6%97%A5</t>
   </si>
   <si>
-    <t>國際陰陽人團結日</t>
+    <t>国际阴阳人团结日</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%BB%E5%8B%95</t>
   </si>
   <si>
-    <t>活動</t>
+    <t>活动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%95%E5%82%B2%E9%81%8A%E8%A1%8C</t>
   </si>
   <si>
-    <t>驕傲遊行</t>
+    <t>骄傲游行</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_LGBT-related_organizations</t>
@@ -1235,13 +1235,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%99%E6%80%A7%E6%80%A7%E6%A0%BC</t>
   </si>
   <si>
-    <t>雙性性格</t>
+    <t>双性性格</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B2%BE%E7%A5%9E%E9%9B%99%E6%80%A7%E4%BA%BA</t>
   </si>
   <si>
-    <t>精神雙性人</t>
+    <t>精神双性人</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Boi_(sexual_slang)</t>
@@ -1253,13 +1253,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A0%86%E6%80%A7%E5%88%A5</t>
   </si>
   <si>
-    <t>順性別</t>
+    <t>顺性别</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E5%88%A5%E9%85%B7%E5%85%92</t>
   </si>
   <si>
-    <t>性別酷兒</t>
+    <t>性别酷儿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B2%BE%E7%A5%9E%E6%B3%9B%E6%80%A7%E4%BA%BA</t>
@@ -1277,7 +1277,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AE%8A%E6%80%A7</t>
   </si>
   <si>
-    <t>變性</t>
+    <t>变性</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%89%E6%80%A7</t>
@@ -1301,13 +1301,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9C%8B%E8%AE%8A%E6%80%A7%E5%A5%B3%E6%80%A7</t>
   </si>
   <si>
-    <t>泰國變性女性</t>
+    <t>泰国变性女性</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%99%E9%9D%88</t>
   </si>
   <si>
-    <t>雙靈</t>
+    <t>双灵</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E5%8F%96%E5%90%91</t>
@@ -1319,7 +1319,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E6%80%A7%E6%88%80</t>
   </si>
   <si>
-    <t>無性戀</t>
+    <t>无性恋</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%82%E6%80%A7%E6%81%8B</t>
@@ -1331,7 +1331,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%84%AB%E9%9B%A2%E5%90%8C%E6%80%A7%E6%88%80</t>
   </si>
   <si>
-    <t>脫離同性戀</t>
+    <t>脱离同性恋</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Ex-ex-gay</t>
@@ -1343,31 +1343,31 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%9B%E6%80%A7%E6%88%80</t>
   </si>
   <si>
-    <t>泛性戀</t>
+    <t>泛性恋</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E9%82%8A%E6%88%80</t>
   </si>
   <si>
-    <t>多邊戀</t>
+    <t>多边恋</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%85%B7%E5%85%92</t>
   </si>
   <si>
-    <t>酷兒</t>
+    <t>酷儿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E7%95%B0%E6%80%A7%E6%88%80</t>
   </si>
   <si>
-    <t>非異性戀</t>
+    <t>非异性恋</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%A9%E6%88%80</t>
   </si>
   <si>
-    <t>物戀</t>
+    <t>物恋</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%96%91%E6%80%A7%E6%81%8B</t>
@@ -1403,13 +1403,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%99%E6%80%A7%E4%BA%BA</t>
   </si>
   <si>
-    <t>雙性人</t>
+    <t>双性人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%8C%E9%9B%84%E9%96%93%E6%80%A7</t>
   </si>
   <si>
-    <t>雌雄間性</t>
+    <t>雌雄间性</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/LGBT_history</t>
@@ -1421,7 +1421,7 @@
     <t>https://zh.wikipedia.org/wiki/LGBT%E6%AD%B7%E5%8F%B2</t>
   </si>
   <si>
-    <t>LGBT歷史</t>
+    <t>LGBT历史</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/History_of_bisexuality</t>
@@ -1451,7 +1451,7 @@
     <t>https://zh.wikipedia.org/wiki/LGBT%E6%AC%8A%E5%88%A9%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>LGBT權利運動</t>
+    <t>LGBT权利运动</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/History_of_Christianity_and_homosexuality</t>
@@ -1469,25 +1469,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%91%E5%B9%B4%E6%84%9B</t>
   </si>
   <si>
-    <t>少年愛</t>
+    <t>少年爱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%87%98%E5%B0%91%E5%B9%B4%E6%84%9B</t>
   </si>
   <si>
-    <t>古希臘少年愛</t>
+    <t>古希腊少年爱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%87%98%E5%90%8C%E6%80%A7%E6%88%80</t>
   </si>
   <si>
-    <t>古希臘同性戀</t>
+    <t>古希腊同性恋</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E7%BE%85%E9%A6%AC%E5%90%8C%E6%80%A7%E6%88%80</t>
   </si>
   <si>
-    <t>古羅馬同性戀</t>
+    <t>古罗马同性恋</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Homosexuality_in_ancient_Egypt</t>
@@ -1529,19 +1529,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9F%B3%E7%89%86%E9%A8%B7%E4%BA%82%E7%99%BC%E7%94%9F%E5%89%8D%E7%9A%84%E7%BE%8E%E5%9C%8BLGBT%E5%B9%B3%E6%AC%8A%E9%81%8B%E5%8B%95%E4%BA%8B%E4%BB%B6%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>石牆騷亂發生前的美國LGBT平權運動事件列表</t>
+    <t>石墙骚乱发生前的美国LGBT平权运动事件列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%B3%E7%89%86%E6%9A%B4%E5%8B%95</t>
   </si>
   <si>
-    <t>石牆暴動</t>
+    <t>石墙暴动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1979%E5%B9%B4%E4%B8%89%E8%97%A9%E5%B8%82%E9%A8%B7%E4%BA%82</t>
   </si>
   <si>
-    <t>1979年三藩市騷亂</t>
+    <t>1979年三藩市骚乱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E6%80%A7%E5%A9%9A%E5%A7%BB</t>
@@ -1553,19 +1553,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%B0LGBT%E6%AC%8A%E5%88%A9</t>
   </si>
   <si>
-    <t>各地LGBT權利</t>
+    <t>各地LGBT权利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2LGBT%E6%AC%8A%E7%9B%8A</t>
   </si>
   <si>
-    <t>非洲LGBT權益</t>
+    <t>非洲LGBT权益</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2LGBT%E6%AC%8A%E7%9B%8A</t>
   </si>
   <si>
-    <t>美洲LGBT權益</t>
+    <t>美洲LGBT权益</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E6%B4%B2LGBT%E6%9D%83%E7%9B%8A</t>
@@ -1577,25 +1577,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2LGBT%E6%AC%8A%E7%9B%8A</t>
   </si>
   <si>
-    <t>歐洲LGBT權益</t>
+    <t>欧洲LGBT权益</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B4%8B%E6%B4%B2LGBT%E6%AC%8A%E7%9B%8A</t>
   </si>
   <si>
-    <t>大洋洲LGBT權益</t>
+    <t>大洋洲LGBT权益</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/LGBT%E6%94%B6%E9%A4%8A</t>
   </si>
   <si>
-    <t>LGBT收養</t>
+    <t>LGBT收养</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%BA%8B%E7%B5%90%E5%90%88</t>
   </si>
   <si>
-    <t>民事結合</t>
+    <t>民事结合</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%87%E6%81%A8%E7%BD%AA%E8%A1%8C</t>
@@ -1613,7 +1613,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E5%82%BE%E5%90%91%E5%92%8C%E5%85%B5%E5%BD%B9</t>
   </si>
   <si>
-    <t>性傾向和兵役</t>
+    <t>性倾向和兵役</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/LGBT%E6%8A%9A%E5%85%BB</t>
@@ -1631,7 +1631,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E6%80%A7%E7%B5%90%E5%90%88%E9%97%9C%E4%BF%82%E6%AD%B7%E5%8F%B2%E5%B9%B4%E8%A1%A8</t>
   </si>
   <si>
-    <t>同性結合關係歷史年表</t>
+    <t>同性结合关系历史年表</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Socialism_and_LGBT_rights</t>
@@ -1649,13 +1649,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E6%80%A7%E5%82%BE%E5%90%91%E8%88%87%E6%80%A7%E5%88%A5%E8%AA%8D%E5%90%8C%E8%AD%B0%E9%A1%8C</t>
   </si>
   <si>
-    <t>聯合國性傾向與性別認同議題</t>
+    <t>联合国性倾向与性别认同议题</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%83%B9%E5%8E%9F%E5%89%87</t>
   </si>
   <si>
-    <t>日惹原則</t>
+    <t>日惹原则</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/LGBT_rights_in_La_Francophonie</t>
@@ -1679,13 +1679,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E5%BF%97%E6%AC%8A%E5%88%A9%E9%81%8B%E5%8B%95%E5%AE%B6</t>
   </si>
   <si>
-    <t>同志權利運動家</t>
+    <t>同志权利运动家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E5%82%BE%E5%90%91%E5%92%8C%E7%94%9F%E7%89%A9%E5%AD%B8</t>
   </si>
   <si>
-    <t>性傾向和生物學</t>
+    <t>性倾向和生物学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%84%E5%BC%9F%E5%87%BA%E7%94%9F%E9%A1%BA%E5%BA%8F%E5%92%8C%E7%94%B7%E6%80%A7%E6%80%A7%E5%8F%96%E5%90%91</t>
@@ -1703,7 +1703,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E5%92%8C%E6%80%A7%E5%8F%96%E5%90%91</t>
   </si>
   <si>
-    <t>環境和性取向</t>
+    <t>环境和性取向</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%82%E6%80%A7%E6%81%8B-%E5%90%8C%E6%80%A7%E6%81%8B%E7%BB%9F%E4%B8%80%E4%BD%93</t>
@@ -1715,7 +1715,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E6%80%A7%E6%88%80%E5%92%8C%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>同性戀和心理學</t>
+    <t>同性恋和心理学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Homosexuality_and_psychology</t>
@@ -1727,7 +1727,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%B3%BD%E9%87%8F%E8%A1%A8</t>
   </si>
   <si>
-    <t>金賽量表</t>
+    <t>金赛量表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E8%8E%B1%E5%9B%A0%E6%80%A7%E5%8F%96%E5%90%91%E7%BD%91%E6%A0%BC</t>
@@ -1745,7 +1745,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%B6%93%E7%A7%91%E5%AD%B8%E5%92%8C%E6%80%A7%E5%8F%96%E5%90%91</t>
   </si>
   <si>
-    <t>神經科學和性取向</t>
+    <t>神经科学和性取向</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Neuroscience_and_sexual_orientation</t>
@@ -1775,7 +1775,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%81%8F%E8%A6%8B</t>
   </si>
   <si>
-    <t>偏見</t>
+    <t>偏见</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/LGBT%E8%BF%AB%E5%AE%B3</t>
@@ -1805,7 +1805,7 @@
     <t>https://zh.wikipedia.org/wiki/LGBT%E6%AC%8A%E5%88%A9%E5%8F%8D%E5%B0%8D%E8%80%85</t>
   </si>
   <si>
-    <t>LGBT權利反對者</t>
+    <t>LGBT权利反对者</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/LGBT%E5%88%BB%E6%9D%BF%E5%8D%B0%E8%B1%A1</t>
@@ -1817,7 +1817,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99%E8%88%87%E5%90%8C%E6%80%A7%E6%88%80</t>
   </si>
   <si>
-    <t>宗教與同性戀</t>
+    <t>宗教与同性恋</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Transgenderism_and_religion</t>
@@ -1835,7 +1835,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A7%E8%A6%96</t>
   </si>
   <si>
-    <t>歧視</t>
+    <t>歧视</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Discrimination_against_people_with_HIV/AIDS</t>
@@ -1847,7 +1847,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%99%E6%80%A7%E6%88%80%E6%81%90%E6%87%BC%E7%97%87</t>
   </si>
   <si>
-    <t>雙性戀恐懼症</t>
+    <t>双性恋恐惧症</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%82%E6%80%A7%E6%81%8B%E4%B8%BB%E4%B9%89</t>
@@ -1871,7 +1871,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B3%E5%90%8C%E6%80%A7%E6%88%80%E6%81%90%E6%87%BC%E7%97%87</t>
   </si>
   <si>
-    <t>女同性戀恐懼症</t>
+    <t>女同性恋恐惧症</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Non-binary_discrimination</t>
@@ -1895,13 +1895,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A7%A6%E6%94%B9</t>
   </si>
   <si>
-    <t>姦改</t>
+    <t>奸改</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E6%80%A7%E6%88%80%E6%AC%BA%E5%87%8C</t>
   </si>
   <si>
-    <t>同性戀欺凌</t>
+    <t>同性恋欺凌</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Gay_bashing</t>
@@ -1973,7 +1973,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E5%88%A5%E6%B5%81%E4%BD%93</t>
   </si>
   <si>
-    <t>性別流体</t>
+    <t>性别流体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%9B%E6%80%A7%E5%88%AB</t>
@@ -1985,25 +1985,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B7%A8%E6%80%A7%E5%88%A5%E7%94%B7%E6%80%A7</t>
   </si>
   <si>
-    <t>跨性別男性</t>
+    <t>跨性别男性</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B7%A8%E6%80%A7%E5%88%A5%E5%A5%B3%E6%80%A7</t>
   </si>
   <si>
-    <t>跨性別女性</t>
+    <t>跨性别女性</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%89%E6%80%A7%E5%88%A5</t>
   </si>
   <si>
-    <t>第三性別</t>
+    <t>第三性别</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%96%B9%E5%89%B2</t>
   </si>
   <si>
-    <t>閹割</t>
+    <t>阉割</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%98%E6%80%A7%E4%BA%BA</t>
@@ -2015,7 +2015,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9C%97%E7%9A%84%E8%AE%8A%E6%80%A7</t>
   </si>
   <si>
-    <t>伊朗的變性</t>
+    <t>伊朗的变性</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%A6%96</t>
@@ -2039,7 +2039,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AE%E6%80%A7%E6%88%80</t>
   </si>
   <si>
-    <t>單性戀</t>
+    <t>单性恋</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E4%B8%BA%E7%A7%91%E5%AD%A6</t>
@@ -2051,19 +2051,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E6%80%A7%E6%88%80</t>
   </si>
   <si>
-    <t>多性戀</t>
+    <t>多性恋</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%80%E6%84%9B%E5%8F%96%E5%90%91</t>
   </si>
   <si>
-    <t>戀愛取向</t>
+    <t>恋爱取向</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E5%88%A5%E4%B8%8D%E5%AE%89%E7%97%87</t>
   </si>
   <si>
-    <t>性別不安症</t>
+    <t>性别不安症</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E5%88%AB%E7%A4%BE%E4%BC%9A%E5%AD%A6</t>
@@ -2081,73 +2081,67 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%B7%E7%94%B7%E6%80%A7%E8%A1%8C%E7%82%BA</t>
   </si>
   <si>
-    <t>男男性行為</t>
+    <t>男男性行为</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%95%B0%E8%A3%9D</t>
   </si>
   <si>
-    <t>異裝</t>
+    <t>异装</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E5%88%A5%E5%AE%9A%E5%9E%8B</t>
   </si>
   <si>
-    <t>性別定型</t>
+    <t>性别定型</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>社會科學</t>
+    <t>社会科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>地理學</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%96%87%E5%9C%B0%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>人文地理學</t>
+    <t>人文地理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E5%9C%B0%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>環境地理學</t>
+    <t>环境地理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%B7%E5%8F%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>歷史學</t>
+    <t>历史学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%AD%B8</t>
   </si>
   <si>
-    <t>法學</t>
+    <t>法学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%AD%B8</t>
   </si>
   <si>
-    <t>政治學</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E9%97%9C%E4%BF%82</t>
   </si>
   <si>
-    <t>國際關係</t>
+    <t>国际关系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E8%A1%8C%E6%94%BF%E5%AD%B8</t>
   </si>
   <si>
-    <t>公共行政學</t>
+    <t>公共行政学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E6%94%BF%E7%AD%96</t>
@@ -2159,15 +2153,12 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>經濟學</t>
+    <t>经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%AD%B8</t>
   </si>
   <si>
-    <t>社會學</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8F%A3%E5%AD%A6</t>
   </si>
   <si>
@@ -2177,49 +2168,49 @@
     <t>https://zh.wikipedia.org/wiki/%E9%84%89%E6%9D%91%E7%A4%BE%E6%9C%83%E5%AD%B8</t>
   </si>
   <si>
-    <t>鄉村社會學</t>
+    <t>乡村社会学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>心理學</t>
+    <t>心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>社會心理學</t>
+    <t>社会心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%83%E5%8F%A4%E5%AD%B8</t>
   </si>
   <si>
-    <t>考古學</t>
+    <t>考古学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AA%9E%E8%A8%80%E5%AD%B8</t>
   </si>
   <si>
-    <t>語言學</t>
+    <t>语言学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E8%88%87%E5%8B%95%E7%89%A9%E9%97%9C%E4%BF%82%E5%AD%B8</t>
   </si>
   <si>
-    <t>人與動物關係學</t>
+    <t>人与动物关系学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%80%E5%9F%9F%E7%A0%94%E7%A9%B6</t>
   </si>
   <si>
-    <t>區域研究</t>
+    <t>区域研究</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%95%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>商學</t>
+    <t>商学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E7%A5%9E%E7%BB%8F%E7%A7%91%E5%AD%A6</t>
@@ -2231,13 +2222,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AA%8D%E7%9F%A5%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>認知科學</t>
+    <t>认知科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%82%B3%E6%92%AD%E5%AD%B8</t>
   </si>
   <si>
-    <t>傳播學</t>
+    <t>传播学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Community_studies</t>
@@ -2261,7 +2252,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>教育學</t>
+    <t>教育学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Environmental_social_science</t>
@@ -2297,7 +2288,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E%E7%94%9F%E6%85%8B%E5%AD%B8</t>
   </si>
   <si>
-    <t>人類生態學</t>
+    <t>人类生态学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E6%81%AF%E5%AD%A6</t>
@@ -2309,19 +2300,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E7%A0%94%E7%A9%B6</t>
   </si>
   <si>
-    <t>國際研究</t>
+    <t>国际研究</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%B8%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>科學哲學</t>
+    <t>科学哲学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>經濟哲學</t>
+    <t>经济哲学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%93%B2%E5%AD%A6</t>
@@ -2345,13 +2336,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%8E%E5%B8%82%E8%A6%8F%E5%8A%83</t>
   </si>
   <si>
-    <t>城市規劃</t>
+    <t>城市规划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E7%94%9F%E6%85%8B%E5%AD%B8</t>
   </si>
   <si>
-    <t>政治生態學</t>
+    <t>政治生态学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
@@ -2363,25 +2354,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E8%A1%9B%E7%94%9F</t>
   </si>
   <si>
-    <t>公共衛生</t>
+    <t>公共卫生</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%80%E5%9F%9F%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>區域經濟學</t>
+    <t>区域经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E6%8A%80%E8%88%87%E7%A4%BE%E6%9C%83</t>
   </si>
   <si>
-    <t>科技與社會</t>
+    <t>科技与社会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%B8%E7%A0%94%E7%A9%B6</t>
   </si>
   <si>
-    <t>科學研究</t>
+    <t>科学研究</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Geisteswissenschaft</t>
@@ -2393,13 +2384,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%96%87%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>人文科學</t>
+    <t>人文科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -13419,7 +13410,7 @@
         <v>695</v>
       </c>
       <c r="F368" t="s">
-        <v>696</v>
+        <v>274</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -13445,10 +13436,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
+        <v>696</v>
+      </c>
+      <c r="F369" t="s">
         <v>697</v>
-      </c>
-      <c r="F369" t="s">
-        <v>698</v>
       </c>
       <c r="G369" t="n">
         <v>2</v>
@@ -13474,10 +13465,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
+        <v>698</v>
+      </c>
+      <c r="F370" t="s">
         <v>699</v>
-      </c>
-      <c r="F370" t="s">
-        <v>700</v>
       </c>
       <c r="G370" t="n">
         <v>3</v>
@@ -13503,10 +13494,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
+        <v>700</v>
+      </c>
+      <c r="F371" t="s">
         <v>701</v>
-      </c>
-      <c r="F371" t="s">
-        <v>702</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -13532,10 +13523,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
+        <v>702</v>
+      </c>
+      <c r="F372" t="s">
         <v>703</v>
-      </c>
-      <c r="F372" t="s">
-        <v>704</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -13561,10 +13552,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F373" t="s">
-        <v>706</v>
+        <v>278</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -13590,10 +13581,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="F374" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -13619,10 +13610,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="F375" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -13648,10 +13639,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="F376" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -13677,10 +13668,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="F377" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="G377" t="n">
         <v>3</v>
@@ -13706,10 +13697,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="F378" t="s">
-        <v>716</v>
+        <v>280</v>
       </c>
       <c r="G378" t="n">
         <v>3</v>
@@ -13735,10 +13726,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="F379" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -13764,10 +13755,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="F380" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
@@ -13793,10 +13784,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="F381" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
@@ -13822,10 +13813,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="F382" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="G382" t="n">
         <v>10</v>
@@ -13851,10 +13842,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="F383" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="G383" t="n">
         <v>1</v>
@@ -13880,10 +13871,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="F384" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="G384" t="n">
         <v>1</v>
@@ -13909,10 +13900,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="F385" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
@@ -13938,10 +13929,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="F386" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="G386" t="n">
         <v>1</v>
@@ -13967,10 +13958,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="F387" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="G387" t="n">
         <v>1</v>
@@ -13996,10 +13987,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="F388" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="G388" t="n">
         <v>1</v>
@@ -14025,10 +14016,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="F389" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="G389" t="n">
         <v>1</v>
@@ -14054,10 +14045,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="F390" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="G390" t="n">
         <v>1</v>
@@ -14083,10 +14074,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="F391" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="G391" t="n">
         <v>1</v>
@@ -14112,10 +14103,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="F392" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="G392" t="n">
         <v>1</v>
@@ -14141,10 +14132,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="F393" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="G393" t="n">
         <v>1</v>
@@ -14170,10 +14161,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="F394" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="G394" t="n">
         <v>1</v>
@@ -14199,10 +14190,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="F395" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="G395" t="n">
         <v>1</v>
@@ -14228,10 +14219,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="F396" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="G396" t="n">
         <v>1</v>
@@ -14257,10 +14248,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="F397" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="G397" t="n">
         <v>1</v>
@@ -14286,10 +14277,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="F398" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="G398" t="n">
         <v>1</v>
@@ -14315,10 +14306,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="F399" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="G399" t="n">
         <v>1</v>
@@ -14344,10 +14335,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="F400" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="G400" t="n">
         <v>1</v>
@@ -14373,10 +14364,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="F401" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="G401" t="n">
         <v>1</v>
@@ -14402,10 +14393,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="F402" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="G402" t="n">
         <v>1</v>
@@ -14431,10 +14422,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="F403" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="G403" t="n">
         <v>1</v>
@@ -14460,10 +14451,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="F404" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="G404" t="n">
         <v>4</v>
@@ -14489,10 +14480,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="F405" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="G405" t="n">
         <v>6</v>
@@ -14518,10 +14509,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="F406" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="G406" t="n">
         <v>1</v>
@@ -14547,10 +14538,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="F407" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="G407" t="n">
         <v>1</v>
@@ -14576,10 +14567,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F408" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="G408" t="n">
         <v>1</v>
@@ -14605,10 +14596,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="F409" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="G409" t="n">
         <v>1</v>
@@ -14634,10 +14625,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="F410" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="G410" t="n">
         <v>1</v>
@@ -14663,10 +14654,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="F411" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="G411" t="n">
         <v>1</v>
@@ -14692,10 +14683,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="F412" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="G412" t="n">
         <v>1</v>
@@ -14721,10 +14712,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="F413" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="G413" t="n">
         <v>1</v>
@@ -14750,10 +14741,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="F414" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="G414" t="n">
         <v>1</v>
@@ -14779,10 +14770,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="F415" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="G415" t="n">
         <v>1</v>
@@ -14808,10 +14799,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="F416" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="G416" t="n">
         <v>1</v>
@@ -14837,10 +14828,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="F417" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="G417" t="n">
         <v>3</v>
@@ -14866,10 +14857,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="F418" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="G418" t="n">
         <v>1</v>

--- a/xlsx/性别研究_intext.xlsx
+++ b/xlsx/性别研究_intext.xlsx
@@ -29,7 +29,7 @@
     <t>女性主義</t>
   </si>
   <si>
-    <t>政策_政策_政治學_性别研究</t>
+    <t>体育运动_体育运动_宦官_性别研究</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B3%E6%80%A7</t>
